--- a/www/ig/fhir/annuaire/StructureDefinition-as-dp-practitioner.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-dp-practitioner.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11058" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11058" uniqueCount="979">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:30:53+00:00</t>
+    <t>2024-04-25T11:46:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1537,9 +1537,13 @@
     <t>Practitioner.identifier:idNatPs.type</t>
   </si>
   <si>
+    <t>Type d’identifiant national de la personne physique (typeIdNat_PP),
+Les codes ADELI, RPPS et IDNPS proviennent du system  https://hl7.fr/ig/fhir/core/CodeSystem/fr-core-cs-v2-0203 ; Les codes 1, 3, 4, 5, 6 proviennent du system : https://mos.esante.gouv.fr/NOS/TRE_G08-TypeIdentifiantPersonne/FHIR/TRE-G08-TypeIdentifiantPersonne</t>
+  </si>
+  <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://interopsante.org/fhir/CodeSystem/fr-v2-0203"/&gt;
+    &lt;system value="https://hl7.fr/ig/fhir/core/CodeSystem/fr-core-cs-v2-0203"/&gt;
     &lt;code value="IDNPS"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1599,7 +1603,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://interopsante.org/fhir/CodeSystem/fr-v2-0203"/&gt;
+    &lt;system value="https://hl7.fr/ig/fhir/core/CodeSystem/fr-core-cs-v2-0203"/&gt;
     &lt;code value="RPPS"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1608,7 +1612,7 @@
     <t>Practitioner.identifier:rpps.system</t>
   </si>
   <si>
-    <t>http://rpps.esante.gouv.fr</t>
+    <t>https://rpps.esante.gouv.fr</t>
   </si>
   <si>
     <t>Practitioner.identifier:rpps.value</t>
@@ -1643,7 +1647,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://interopsante.org/fhir/CodeSystem/fr-v2-0203"/&gt;
+    &lt;system value="https://hl7.fr/ig/fhir/core/CodeSystem/fr-core-cs-v2-0203"/&gt;
     &lt;code value="ADELI"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1652,7 +1656,7 @@
     <t>Practitioner.identifier:adeli.system</t>
   </si>
   <si>
-    <t>http://adeli.esante.gouv.fr</t>
+    <t>https://adeli.esante.gouv.fr</t>
   </si>
   <si>
     <t>Practitioner.identifier:adeli.value</t>
@@ -16837,7 +16841,7 @@
         <v>233</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>384</v>
+        <v>491</v>
       </c>
       <c r="M116" t="s" s="2">
         <v>385</v>
@@ -16856,7 +16860,7 @@
         <v>78</v>
       </c>
       <c r="S116" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="T116" t="s" s="2">
         <v>78</v>
@@ -16874,10 +16878,10 @@
         <v>158</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Z116" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>78</v>
@@ -16927,7 +16931,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>449</v>
@@ -16959,7 +16963,7 @@
         <v>450</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N117" t="s" s="2">
         <v>452</v>
@@ -16975,7 +16979,7 @@
         <v>78</v>
       </c>
       <c r="S117" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="T117" t="s" s="2">
         <v>454</v>
@@ -17046,7 +17050,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>459</v>
@@ -17075,7 +17079,7 @@
         <v>104</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M118" t="s" s="2">
         <v>461</v>
@@ -17163,7 +17167,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>468</v>
@@ -17278,7 +17282,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>475</v>
@@ -17395,13 +17399,13 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>361</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D121" t="s" s="2">
         <v>78</v>
@@ -17426,7 +17430,7 @@
         <v>362</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M121" t="s" s="2">
         <v>364</v>
@@ -17514,7 +17518,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>372</v>
@@ -17629,7 +17633,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>373</v>
@@ -17746,7 +17750,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>374</v>
@@ -17865,7 +17869,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>383</v>
@@ -17894,7 +17898,7 @@
         <v>233</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M125" t="s" s="2">
         <v>385</v>
@@ -17913,7 +17917,7 @@
         <v>78</v>
       </c>
       <c r="S125" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="T125" t="s" s="2">
         <v>78</v>
@@ -17931,10 +17935,10 @@
         <v>158</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Z125" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AA125" t="s" s="2">
         <v>78</v>
@@ -17984,7 +17988,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>449</v>
@@ -18016,7 +18020,7 @@
         <v>450</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N126" t="s" s="2">
         <v>452</v>
@@ -18032,7 +18036,7 @@
         <v>78</v>
       </c>
       <c r="S126" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="T126" t="s" s="2">
         <v>454</v>
@@ -18103,7 +18107,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>459</v>
@@ -18220,7 +18224,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>468</v>
@@ -18335,7 +18339,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>475</v>
@@ -18452,13 +18456,13 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>361</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D130" t="s" s="2">
         <v>78</v>
@@ -18483,7 +18487,7 @@
         <v>362</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M130" t="s" s="2">
         <v>364</v>
@@ -18571,7 +18575,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>372</v>
@@ -18686,7 +18690,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>373</v>
@@ -18803,7 +18807,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>374</v>
@@ -18922,7 +18926,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>383</v>
@@ -18951,7 +18955,7 @@
         <v>233</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M134" t="s" s="2">
         <v>385</v>
@@ -18970,7 +18974,7 @@
         <v>78</v>
       </c>
       <c r="S134" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="T134" t="s" s="2">
         <v>78</v>
@@ -18988,10 +18992,10 @@
         <v>158</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Z134" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AA134" t="s" s="2">
         <v>78</v>
@@ -19041,7 +19045,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>449</v>
@@ -19073,7 +19077,7 @@
         <v>450</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N135" t="s" s="2">
         <v>452</v>
@@ -19089,7 +19093,7 @@
         <v>78</v>
       </c>
       <c r="S135" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="T135" t="s" s="2">
         <v>454</v>
@@ -19160,7 +19164,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>459</v>
@@ -19277,7 +19281,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>468</v>
@@ -19392,7 +19396,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>475</v>
@@ -19509,13 +19513,13 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>361</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D139" t="s" s="2">
         <v>78</v>
@@ -19540,7 +19544,7 @@
         <v>362</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M139" t="s" s="2">
         <v>364</v>
@@ -19628,7 +19632,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>372</v>
@@ -19743,7 +19747,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>373</v>
@@ -19860,7 +19864,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>374</v>
@@ -19979,7 +19983,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>383</v>
@@ -20008,7 +20012,7 @@
         <v>233</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M143" t="s" s="2">
         <v>385</v>
@@ -20027,7 +20031,7 @@
         <v>78</v>
       </c>
       <c r="S143" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="T143" t="s" s="2">
         <v>78</v>
@@ -20045,10 +20049,10 @@
         <v>158</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Z143" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AA143" t="s" s="2">
         <v>78</v>
@@ -20098,7 +20102,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>449</v>
@@ -20127,10 +20131,10 @@
         <v>137</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N144" t="s" s="2">
         <v>452</v>
@@ -20165,7 +20169,7 @@
       </c>
       <c r="Y144" s="2"/>
       <c r="Z144" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AA144" t="s" s="2">
         <v>78</v>
@@ -20215,7 +20219,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>459</v>
@@ -20244,7 +20248,7 @@
         <v>104</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M145" t="s" s="2">
         <v>461</v>
@@ -20332,7 +20336,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>468</v>
@@ -20367,7 +20371,7 @@
         <v>470</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O146" s="2"/>
       <c r="P146" t="s" s="2">
@@ -20429,7 +20433,7 @@
         <v>209</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AK146" t="s" s="2">
         <v>78</v>
@@ -20449,7 +20453,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>475</v>
@@ -20546,7 +20550,7 @@
         <v>209</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>78</v>
@@ -20566,10 +20570,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20595,67 +20599,67 @@
         <v>297</v>
       </c>
       <c r="L148" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="M148" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="N148" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="O148" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="P148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q148" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="R148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF148" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="O148" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="P148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q148" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="R148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF148" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>79</v>
@@ -20676,21 +20680,21 @@
         <v>78</v>
       </c>
       <c r="AM148" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AN148" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO148" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20713,19 +20717,19 @@
         <v>78</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="O149" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="P149" t="s" s="2">
         <v>78</v>
@@ -20774,7 +20778,7 @@
         <v>78</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>79</v>
@@ -20792,13 +20796,13 @@
         <v>78</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AN149" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AO149" t="s" s="2">
         <v>78</v>
@@ -20806,10 +20810,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20921,10 +20925,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21038,13 +21042,13 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="B152" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="B152" t="s" s="2">
-        <v>564</v>
-      </c>
       <c r="C152" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D152" t="s" s="2">
         <v>78</v>
@@ -21066,13 +21070,13 @@
         <v>78</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -21155,10 +21159,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21184,16 +21188,16 @@
         <v>176</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="O153" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>78</v>
@@ -21222,7 +21226,7 @@
       </c>
       <c r="Y153" s="2"/>
       <c r="Z153" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AA153" t="s" s="2">
         <v>78</v>
@@ -21240,7 +21244,7 @@
         <v>78</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>79</v>
@@ -21258,13 +21262,13 @@
         <v>78</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AN153" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AO153" t="s" s="2">
         <v>78</v>
@@ -21272,10 +21276,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21301,16 +21305,16 @@
         <v>104</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="O154" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>78</v>
@@ -21359,7 +21363,7 @@
         <v>78</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>79</v>
@@ -21377,10 +21381,10 @@
         <v>78</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>78</v>
@@ -21391,14 +21395,14 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" t="s" s="2">
@@ -21420,13 +21424,13 @@
         <v>104</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O155" s="2"/>
       <c r="P155" t="s" s="2">
@@ -21476,7 +21480,7 @@
         <v>78</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>79</v>
@@ -21494,13 +21498,13 @@
         <v>78</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AN155" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AO155" t="s" s="2">
         <v>78</v>
@@ -21508,14 +21512,14 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" t="s" s="2">
@@ -21537,13 +21541,13 @@
         <v>104</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="O156" s="2"/>
       <c r="P156" t="s" s="2">
@@ -21593,7 +21597,7 @@
         <v>78</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>79</v>
@@ -21611,13 +21615,13 @@
         <v>78</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AN156" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AO156" t="s" s="2">
         <v>78</v>
@@ -21625,10 +21629,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21654,10 +21658,10 @@
         <v>104</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" s="2"/>
@@ -21687,10 +21691,10 @@
         <v>158</v>
       </c>
       <c r="Y157" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="Z157" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AA157" t="s" s="2">
         <v>78</v>
@@ -21708,7 +21712,7 @@
         <v>78</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>79</v>
@@ -21726,13 +21730,13 @@
         <v>78</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AN157" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AO157" t="s" s="2">
         <v>78</v>
@@ -21740,10 +21744,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21769,10 +21773,10 @@
         <v>104</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N158" s="2"/>
       <c r="O158" s="2"/>
@@ -21802,10 +21806,10 @@
         <v>158</v>
       </c>
       <c r="Y158" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="Z158" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AA158" t="s" s="2">
         <v>78</v>
@@ -21823,7 +21827,7 @@
         <v>78</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>79</v>
@@ -21841,10 +21845,10 @@
         <v>78</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>78</v>
@@ -21855,10 +21859,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21884,14 +21888,14 @@
         <v>253</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>78</v>
@@ -21940,7 +21944,7 @@
         <v>78</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>79</v>
@@ -21958,10 +21962,10 @@
         <v>78</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>474</v>
@@ -21972,10 +21976,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -21998,19 +22002,19 @@
         <v>78</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="O160" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>78</v>
@@ -22047,17 +22051,17 @@
         <v>78</v>
       </c>
       <c r="AB160" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AC160" s="2"/>
       <c r="AD160" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>79</v>
@@ -22069,19 +22073,19 @@
         <v>209</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AK160" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AN160" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AO160" t="s" s="2">
         <v>78</v>
@@ -22089,13 +22093,13 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D161" t="s" s="2">
         <v>78</v>
@@ -22117,19 +22121,19 @@
         <v>78</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="O161" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>78</v>
@@ -22178,7 +22182,7 @@
         <v>78</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>79</v>
@@ -22190,19 +22194,19 @@
         <v>209</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AK161" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AN161" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AO161" t="s" s="2">
         <v>78</v>
@@ -22210,10 +22214,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22325,10 +22329,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22442,13 +22446,13 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="B164" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="B164" t="s" s="2">
-        <v>649</v>
-      </c>
       <c r="C164" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D164" t="s" s="2">
         <v>78</v>
@@ -22470,13 +22474,13 @@
         <v>78</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" s="2"/>
@@ -22559,10 +22563,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22674,10 +22678,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22789,10 +22793,10 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -22832,7 +22836,7 @@
       </c>
       <c r="Q167" s="2"/>
       <c r="R167" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="S167" t="s" s="2">
         <v>78</v>
@@ -22906,10 +22910,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -22950,7 +22954,7 @@
         <v>78</v>
       </c>
       <c r="S168" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="T168" t="s" s="2">
         <v>78</v>
@@ -22969,7 +22973,7 @@
       </c>
       <c r="Y168" s="2"/>
       <c r="Z168" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AA168" t="s" s="2">
         <v>78</v>
@@ -23019,13 +23023,13 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D169" t="s" s="2">
         <v>78</v>
@@ -23047,13 +23051,13 @@
         <v>78</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="N169" s="2"/>
       <c r="O169" s="2"/>
@@ -23136,10 +23140,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23251,10 +23255,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23368,10 +23372,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C172" t="s" s="2">
         <v>312</v>
@@ -23399,7 +23403,7 @@
         <v>111</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="M172" t="s" s="2">
         <v>202</v>
@@ -23485,10 +23489,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23600,10 +23604,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23715,10 +23719,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -23832,10 +23836,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -23895,7 +23899,7 @@
       </c>
       <c r="Y176" s="2"/>
       <c r="Z176" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AA176" t="s" s="2">
         <v>78</v>
@@ -23945,13 +23949,13 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D177" t="s" s="2">
         <v>78</v>
@@ -23976,7 +23980,7 @@
         <v>111</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="M177" t="s" s="2">
         <v>202</v>
@@ -24062,10 +24066,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24177,10 +24181,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -24292,10 +24296,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24335,7 +24339,7 @@
       </c>
       <c r="Q180" s="2"/>
       <c r="R180" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="S180" t="s" s="2">
         <v>78</v>
@@ -24409,10 +24413,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24524,13 +24528,13 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D182" t="s" s="2">
         <v>78</v>
@@ -24641,10 +24645,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -24756,10 +24760,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -24871,10 +24875,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -24914,7 +24918,7 @@
       </c>
       <c r="Q185" s="2"/>
       <c r="R185" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="S185" t="s" s="2">
         <v>78</v>
@@ -24988,10 +24992,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25103,13 +25107,13 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D187" t="s" s="2">
         <v>78</v>
@@ -25134,7 +25138,7 @@
         <v>111</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="M187" t="s" s="2">
         <v>202</v>
@@ -25220,10 +25224,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -25335,10 +25339,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -25450,10 +25454,10 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -25493,7 +25497,7 @@
       </c>
       <c r="Q190" s="2"/>
       <c r="R190" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="S190" t="s" s="2">
         <v>78</v>
@@ -25567,10 +25571,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -25682,13 +25686,13 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D192" t="s" s="2">
         <v>78</v>
@@ -25799,10 +25803,10 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -25914,10 +25918,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -26029,10 +26033,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -26072,7 +26076,7 @@
       </c>
       <c r="Q195" s="2"/>
       <c r="R195" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="S195" t="s" s="2">
         <v>78</v>
@@ -26146,10 +26150,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -26261,13 +26265,13 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D197" t="s" s="2">
         <v>78</v>
@@ -26292,7 +26296,7 @@
         <v>111</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="M197" t="s" s="2">
         <v>202</v>
@@ -26378,10 +26382,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -26493,10 +26497,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -26608,10 +26612,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -26651,7 +26655,7 @@
       </c>
       <c r="Q200" s="2"/>
       <c r="R200" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="S200" t="s" s="2">
         <v>78</v>
@@ -26725,10 +26729,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -26840,13 +26844,13 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D202" t="s" s="2">
         <v>78</v>
@@ -26871,7 +26875,7 @@
         <v>111</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="M202" t="s" s="2">
         <v>202</v>
@@ -26957,10 +26961,10 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -27072,10 +27076,10 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -27187,10 +27191,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -27230,7 +27234,7 @@
       </c>
       <c r="Q205" s="2"/>
       <c r="R205" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="S205" t="s" s="2">
         <v>78</v>
@@ -27304,10 +27308,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -27419,10 +27423,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -27462,7 +27466,7 @@
       </c>
       <c r="Q207" s="2"/>
       <c r="R207" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="S207" t="s" s="2">
         <v>78</v>
@@ -27536,10 +27540,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -27651,10 +27655,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -27680,10 +27684,10 @@
         <v>176</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="N209" s="2"/>
       <c r="O209" s="2"/>
@@ -27695,7 +27699,7 @@
         <v>78</v>
       </c>
       <c r="S209" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="T209" t="s" s="2">
         <v>78</v>
@@ -27713,10 +27717,10 @@
         <v>236</v>
       </c>
       <c r="Y209" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="Z209" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AA209" t="s" s="2">
         <v>78</v>
@@ -27734,7 +27738,7 @@
         <v>78</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>79</v>
@@ -27743,7 +27747,7 @@
         <v>90</v>
       </c>
       <c r="AI209" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AJ209" t="s" s="2">
         <v>102</v>
@@ -27752,13 +27756,13 @@
         <v>78</v>
       </c>
       <c r="AL209" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AM209" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AN209" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="AO209" t="s" s="2">
         <v>78</v>
@@ -27766,10 +27770,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -27795,16 +27799,16 @@
         <v>104</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="O210" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="P210" t="s" s="2">
         <v>78</v>
@@ -27853,7 +27857,7 @@
         <v>78</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>79</v>
@@ -27871,10 +27875,10 @@
         <v>78</v>
       </c>
       <c r="AL210" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="AM210" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AN210" t="s" s="2">
         <v>467</v>
@@ -27885,10 +27889,10 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -27914,16 +27918,16 @@
         <v>176</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="O211" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="P211" t="s" s="2">
         <v>78</v>
@@ -27951,10 +27955,10 @@
         <v>236</v>
       </c>
       <c r="Y211" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="Z211" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="AA211" t="s" s="2">
         <v>78</v>
@@ -27972,7 +27976,7 @@
         <v>78</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>79</v>
@@ -27990,13 +27994,13 @@
         <v>78</v>
       </c>
       <c r="AL211" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="AM211" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AN211" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="AO211" t="s" s="2">
         <v>78</v>
@@ -28004,10 +28008,10 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -28030,16 +28034,16 @@
         <v>91</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="O212" s="2"/>
       <c r="P212" t="s" s="2">
@@ -28089,7 +28093,7 @@
         <v>78</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>79</v>
@@ -28121,10 +28125,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -28150,10 +28154,10 @@
         <v>253</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="N213" s="2"/>
       <c r="O213" s="2"/>
@@ -28204,7 +28208,7 @@
         <v>78</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>79</v>
@@ -28225,7 +28229,7 @@
         <v>199</v>
       </c>
       <c r="AM213" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AN213" t="s" s="2">
         <v>474</v>
@@ -28236,10 +28240,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -28262,19 +28266,19 @@
         <v>78</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="O214" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="P214" t="s" s="2">
         <v>78</v>
@@ -28323,7 +28327,7 @@
         <v>78</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AG214" t="s" s="2">
         <v>79</v>
@@ -28341,13 +28345,13 @@
         <v>78</v>
       </c>
       <c r="AL214" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AM214" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="AN214" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="AO214" t="s" s="2">
         <v>78</v>
@@ -28355,10 +28359,10 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -28384,14 +28388,14 @@
         <v>176</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="N215" s="2"/>
       <c r="O215" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="P215" t="s" s="2">
         <v>78</v>
@@ -28419,10 +28423,10 @@
         <v>236</v>
       </c>
       <c r="Y215" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="Z215" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AA215" t="s" s="2">
         <v>78</v>
@@ -28440,7 +28444,7 @@
         <v>78</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>79</v>
@@ -28458,13 +28462,13 @@
         <v>78</v>
       </c>
       <c r="AL215" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="AM215" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="AN215" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="AO215" t="s" s="2">
         <v>78</v>
@@ -28472,10 +28476,10 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -28498,17 +28502,17 @@
         <v>91</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="N216" s="2"/>
       <c r="O216" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="P216" t="s" s="2">
         <v>78</v>
@@ -28557,7 +28561,7 @@
         <v>78</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>79</v>
@@ -28575,13 +28579,13 @@
         <v>78</v>
       </c>
       <c r="AL216" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="AM216" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="AN216" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="AO216" t="s" s="2">
         <v>78</v>
@@ -28589,10 +28593,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -28615,17 +28619,17 @@
         <v>78</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="N217" s="2"/>
       <c r="O217" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="P217" t="s" s="2">
         <v>78</v>
@@ -28674,7 +28678,7 @@
         <v>78</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>79</v>
@@ -28695,10 +28699,10 @@
         <v>78</v>
       </c>
       <c r="AM217" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="AN217" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="AO217" t="s" s="2">
         <v>78</v>
@@ -28706,10 +28710,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -28732,13 +28736,13 @@
         <v>78</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="N218" s="2"/>
       <c r="O218" s="2"/>
@@ -28777,7 +28781,7 @@
         <v>78</v>
       </c>
       <c r="AB218" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="AC218" s="2"/>
       <c r="AD218" t="s" s="2">
@@ -28787,7 +28791,7 @@
         <v>117</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>79</v>
@@ -28805,13 +28809,13 @@
         <v>78</v>
       </c>
       <c r="AL218" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="AM218" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="AN218" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="AO218" t="s" s="2">
         <v>78</v>
@@ -28819,10 +28823,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -28934,10 +28938,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -29051,14 +29055,14 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="E221" s="2"/>
       <c r="F221" t="s" s="2">
@@ -29080,10 +29084,10 @@
         <v>111</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="N221" t="s" s="2">
         <v>114</v>
@@ -29138,7 +29142,7 @@
         <v>78</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>79</v>
@@ -29170,10 +29174,10 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -29199,14 +29203,14 @@
         <v>362</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="N222" s="2"/>
       <c r="O222" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="P222" t="s" s="2">
         <v>78</v>
@@ -29255,7 +29259,7 @@
         <v>78</v>
       </c>
       <c r="AF222" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="AG222" t="s" s="2">
         <v>79</v>
@@ -29276,7 +29280,7 @@
         <v>78</v>
       </c>
       <c r="AM222" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AN222" t="s" s="2">
         <v>78</v>
@@ -29287,10 +29291,10 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -29316,10 +29320,10 @@
         <v>233</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="N223" s="2"/>
       <c r="O223" s="2"/>
@@ -29350,7 +29354,7 @@
       </c>
       <c r="Y223" s="2"/>
       <c r="Z223" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="AA223" t="s" s="2">
         <v>78</v>
@@ -29368,7 +29372,7 @@
         <v>78</v>
       </c>
       <c r="AF223" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AG223" t="s" s="2">
         <v>90</v>
@@ -29389,10 +29393,10 @@
         <v>78</v>
       </c>
       <c r="AM223" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="AN223" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="AO223" t="s" s="2">
         <v>78</v>
@@ -29400,10 +29404,10 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -29429,14 +29433,14 @@
         <v>253</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="N224" s="2"/>
       <c r="O224" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="P224" t="s" s="2">
         <v>78</v>
@@ -29485,7 +29489,7 @@
         <v>78</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="AG224" t="s" s="2">
         <v>79</v>
@@ -29506,10 +29510,10 @@
         <v>78</v>
       </c>
       <c r="AM224" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="AN224" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="AO224" t="s" s="2">
         <v>78</v>
@@ -29517,10 +29521,10 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -29546,10 +29550,10 @@
         <v>476</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="N225" s="2"/>
       <c r="O225" s="2"/>
@@ -29600,7 +29604,7 @@
         <v>78</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="AG225" t="s" s="2">
         <v>79</v>
@@ -29621,7 +29625,7 @@
         <v>78</v>
       </c>
       <c r="AM225" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="AN225" t="s" s="2">
         <v>78</v>
@@ -29632,13 +29636,13 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D226" t="s" s="2">
         <v>78</v>
@@ -29660,13 +29664,13 @@
         <v>78</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="N226" s="2"/>
       <c r="O226" s="2"/>
@@ -29717,7 +29721,7 @@
         <v>78</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="AG226" t="s" s="2">
         <v>79</v>
@@ -29735,13 +29739,13 @@
         <v>78</v>
       </c>
       <c r="AL226" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="AM226" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="AN226" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="AO226" t="s" s="2">
         <v>78</v>
@@ -29749,10 +29753,10 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -29864,10 +29868,10 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -29977,13 +29981,13 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D229" t="s" s="2">
         <v>78</v>
@@ -30005,13 +30009,13 @@
         <v>78</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="N229" s="2"/>
       <c r="O229" s="2"/>
@@ -30094,10 +30098,10 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -30209,10 +30213,10 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -30326,13 +30330,13 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
+        <v>854</v>
+      </c>
+      <c r="B232" t="s" s="2">
         <v>853</v>
       </c>
-      <c r="B232" t="s" s="2">
-        <v>852</v>
-      </c>
       <c r="C232" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D232" t="s" s="2">
         <v>78</v>
@@ -30443,10 +30447,10 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -30558,10 +30562,10 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -30673,10 +30677,10 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -30716,7 +30720,7 @@
       </c>
       <c r="Q235" s="2"/>
       <c r="R235" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="S235" t="s" s="2">
         <v>78</v>
@@ -30790,10 +30794,10 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -30853,7 +30857,7 @@
       </c>
       <c r="Y236" s="2"/>
       <c r="Z236" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="AA236" t="s" s="2">
         <v>78</v>
@@ -30903,13 +30907,13 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D237" t="s" s="2">
         <v>78</v>
@@ -31020,10 +31024,10 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -31135,10 +31139,10 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -31250,10 +31254,10 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -31293,7 +31297,7 @@
       </c>
       <c r="Q240" s="2"/>
       <c r="R240" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="S240" t="s" s="2">
         <v>78</v>
@@ -31367,10 +31371,10 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -31430,7 +31434,7 @@
       </c>
       <c r="Y241" s="2"/>
       <c r="Z241" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="AA241" t="s" s="2">
         <v>78</v>
@@ -31480,13 +31484,13 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C242" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D242" t="s" s="2">
         <v>78</v>
@@ -31597,10 +31601,10 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" t="s" s="2">
@@ -31712,10 +31716,10 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
@@ -31827,10 +31831,10 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
@@ -31870,7 +31874,7 @@
       </c>
       <c r="Q245" s="2"/>
       <c r="R245" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="S245" t="s" s="2">
         <v>78</v>
@@ -31944,10 +31948,10 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" t="s" s="2">
@@ -32007,7 +32011,7 @@
       </c>
       <c r="Y246" s="2"/>
       <c r="Z246" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="AA246" t="s" s="2">
         <v>78</v>
@@ -32057,10 +32061,10 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
@@ -32100,7 +32104,7 @@
       </c>
       <c r="Q247" s="2"/>
       <c r="R247" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="S247" t="s" s="2">
         <v>78</v>
@@ -32174,10 +32178,10 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" t="s" s="2">
@@ -32289,14 +32293,14 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="E249" s="2"/>
       <c r="F249" t="s" s="2">
@@ -32318,10 +32322,10 @@
         <v>111</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="M249" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="N249" t="s" s="2">
         <v>114</v>
@@ -32376,7 +32380,7 @@
         <v>78</v>
       </c>
       <c r="AF249" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AG249" t="s" s="2">
         <v>79</v>
@@ -32408,10 +32412,10 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" t="s" s="2">
@@ -32437,14 +32441,14 @@
         <v>362</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="N250" s="2"/>
       <c r="O250" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="P250" t="s" s="2">
         <v>78</v>
@@ -32493,7 +32497,7 @@
         <v>78</v>
       </c>
       <c r="AF250" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="AG250" t="s" s="2">
         <v>79</v>
@@ -32514,7 +32518,7 @@
         <v>78</v>
       </c>
       <c r="AM250" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AN250" t="s" s="2">
         <v>78</v>
@@ -32525,10 +32529,10 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" t="s" s="2">
@@ -32554,10 +32558,10 @@
         <v>233</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="N251" s="2"/>
       <c r="O251" s="2"/>
@@ -32588,7 +32592,7 @@
       </c>
       <c r="Y251" s="2"/>
       <c r="Z251" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="AA251" t="s" s="2">
         <v>78</v>
@@ -32606,7 +32610,7 @@
         <v>78</v>
       </c>
       <c r="AF251" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AG251" t="s" s="2">
         <v>90</v>
@@ -32627,10 +32631,10 @@
         <v>78</v>
       </c>
       <c r="AM251" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="AN251" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="AO251" t="s" s="2">
         <v>78</v>
@@ -32638,10 +32642,10 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" t="s" s="2">
@@ -32753,10 +32757,10 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" t="s" s="2">
@@ -32870,10 +32874,10 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C254" s="2"/>
       <c r="D254" t="s" s="2">
@@ -32945,14 +32949,14 @@
         <v>78</v>
       </c>
       <c r="AB254" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="AC254" s="2"/>
       <c r="AD254" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>398</v>
@@ -32987,13 +32991,13 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C255" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="D255" t="s" s="2">
         <v>78</v>
@@ -33056,7 +33060,7 @@
       </c>
       <c r="Y255" s="2"/>
       <c r="Z255" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="AA255" t="s" s="2">
         <v>78</v>
@@ -33106,13 +33110,13 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C256" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D256" t="s" s="2">
         <v>78</v>
@@ -33175,7 +33179,7 @@
       </c>
       <c r="Y256" s="2"/>
       <c r="Z256" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="AA256" t="s" s="2">
         <v>78</v>
@@ -33225,10 +33229,10 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" t="s" s="2">
@@ -33344,10 +33348,10 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" t="s" s="2">
@@ -33373,14 +33377,14 @@
         <v>253</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="M258" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="N258" s="2"/>
       <c r="O258" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="P258" t="s" s="2">
         <v>78</v>
@@ -33429,7 +33433,7 @@
         <v>78</v>
       </c>
       <c r="AF258" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="AG258" t="s" s="2">
         <v>79</v>
@@ -33450,10 +33454,10 @@
         <v>78</v>
       </c>
       <c r="AM258" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="AN258" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="AO258" t="s" s="2">
         <v>78</v>
@@ -33461,10 +33465,10 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" t="s" s="2">
@@ -33576,10 +33580,10 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" t="s" s="2">
@@ -33693,10 +33697,10 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C261" s="2"/>
       <c r="D261" t="s" s="2">
@@ -33722,7 +33726,7 @@
         <v>260</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="M261" t="s" s="2">
         <v>262</v>
@@ -33810,10 +33814,10 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" t="s" s="2">
@@ -33839,7 +33843,7 @@
         <v>260</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="M262" t="s" s="2">
         <v>271</v>
@@ -33929,10 +33933,10 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" t="s" s="2">
@@ -33955,13 +33959,13 @@
         <v>78</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="N263" s="2"/>
       <c r="O263" s="2"/>
@@ -34012,7 +34016,7 @@
         <v>78</v>
       </c>
       <c r="AF263" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="AG263" t="s" s="2">
         <v>79</v>
@@ -34033,7 +34037,7 @@
         <v>78</v>
       </c>
       <c r="AM263" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="AN263" t="s" s="2">
         <v>78</v>
@@ -34044,13 +34048,13 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C264" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D264" t="s" s="2">
         <v>78</v>
@@ -34072,13 +34076,13 @@
         <v>78</v>
       </c>
       <c r="K264" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="M264" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="N264" s="2"/>
       <c r="O264" s="2"/>
@@ -34129,7 +34133,7 @@
         <v>78</v>
       </c>
       <c r="AF264" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="AG264" t="s" s="2">
         <v>79</v>
@@ -34147,13 +34151,13 @@
         <v>78</v>
       </c>
       <c r="AL264" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="AM264" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="AN264" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="AO264" t="s" s="2">
         <v>78</v>
@@ -34161,10 +34165,10 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" t="s" s="2">
@@ -34276,10 +34280,10 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" t="s" s="2">
@@ -34393,14 +34397,14 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="E267" s="2"/>
       <c r="F267" t="s" s="2">
@@ -34422,10 +34426,10 @@
         <v>111</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="N267" t="s" s="2">
         <v>114</v>
@@ -34480,7 +34484,7 @@
         <v>78</v>
       </c>
       <c r="AF267" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AG267" t="s" s="2">
         <v>79</v>
@@ -34512,10 +34516,10 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C268" s="2"/>
       <c r="D268" t="s" s="2">
@@ -34541,14 +34545,14 @@
         <v>362</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="M268" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="N268" s="2"/>
       <c r="O268" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="P268" t="s" s="2">
         <v>78</v>
@@ -34597,7 +34601,7 @@
         <v>78</v>
       </c>
       <c r="AF268" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="AG268" t="s" s="2">
         <v>79</v>
@@ -34618,7 +34622,7 @@
         <v>78</v>
       </c>
       <c r="AM268" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AN268" t="s" s="2">
         <v>78</v>
@@ -34629,10 +34633,10 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" t="s" s="2">
@@ -34658,10 +34662,10 @@
         <v>233</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="N269" s="2"/>
       <c r="O269" s="2"/>
@@ -34692,7 +34696,7 @@
       </c>
       <c r="Y269" s="2"/>
       <c r="Z269" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="AA269" t="s" s="2">
         <v>78</v>
@@ -34710,7 +34714,7 @@
         <v>78</v>
       </c>
       <c r="AF269" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AG269" t="s" s="2">
         <v>90</v>
@@ -34731,10 +34735,10 @@
         <v>78</v>
       </c>
       <c r="AM269" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="AN269" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="AO269" t="s" s="2">
         <v>78</v>
@@ -34742,10 +34746,10 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" t="s" s="2">
@@ -34857,10 +34861,10 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C271" s="2"/>
       <c r="D271" t="s" s="2">
@@ -34974,10 +34978,10 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C272" s="2"/>
       <c r="D272" t="s" s="2">
@@ -35049,14 +35053,14 @@
         <v>78</v>
       </c>
       <c r="AB272" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="AC272" s="2"/>
       <c r="AD272" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE272" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AF272" t="s" s="2">
         <v>398</v>
@@ -35091,13 +35095,13 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D273" t="s" s="2">
         <v>78</v>
@@ -35122,7 +35126,7 @@
         <v>154</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="M273" t="s" s="2">
         <v>395</v>
@@ -35160,7 +35164,7 @@
       </c>
       <c r="Y273" s="2"/>
       <c r="Z273" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="AA273" t="s" s="2">
         <v>78</v>
@@ -35210,10 +35214,10 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C274" t="s" s="2">
         <v>337</v>
@@ -35241,7 +35245,7 @@
         <v>154</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="M274" t="s" s="2">
         <v>395</v>
@@ -35329,10 +35333,10 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" t="s" s="2">
@@ -35448,10 +35452,10 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" t="s" s="2">
@@ -35477,14 +35481,14 @@
         <v>253</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="M276" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="N276" s="2"/>
       <c r="O276" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="P276" t="s" s="2">
         <v>78</v>
@@ -35533,7 +35537,7 @@
         <v>78</v>
       </c>
       <c r="AF276" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="AG276" t="s" s="2">
         <v>79</v>
@@ -35554,10 +35558,10 @@
         <v>78</v>
       </c>
       <c r="AM276" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="AN276" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="AO276" t="s" s="2">
         <v>78</v>
@@ -35565,10 +35569,10 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" t="s" s="2">
@@ -35680,10 +35684,10 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" t="s" s="2">
@@ -35797,10 +35801,10 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" t="s" s="2">
@@ -35826,7 +35830,7 @@
         <v>260</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="M279" t="s" s="2">
         <v>262</v>
@@ -35914,10 +35918,10 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" t="s" s="2">
@@ -35943,7 +35947,7 @@
         <v>260</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="M280" t="s" s="2">
         <v>271</v>
@@ -36033,10 +36037,10 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C281" s="2"/>
       <c r="D281" t="s" s="2">
@@ -36062,10 +36066,10 @@
         <v>476</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="N281" s="2"/>
       <c r="O281" s="2"/>
@@ -36116,7 +36120,7 @@
         <v>78</v>
       </c>
       <c r="AF281" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="AG281" t="s" s="2">
         <v>79</v>
@@ -36137,7 +36141,7 @@
         <v>78</v>
       </c>
       <c r="AM281" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="AN281" t="s" s="2">
         <v>78</v>
@@ -36148,13 +36152,13 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C282" t="s" s="2">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="D282" t="s" s="2">
         <v>78</v>
@@ -36176,13 +36180,13 @@
         <v>78</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="N282" s="2"/>
       <c r="O282" s="2"/>
@@ -36233,7 +36237,7 @@
         <v>78</v>
       </c>
       <c r="AF282" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="AG282" t="s" s="2">
         <v>79</v>
@@ -36251,13 +36255,13 @@
         <v>78</v>
       </c>
       <c r="AL282" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="AM282" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="AN282" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="AO282" t="s" s="2">
         <v>78</v>
@@ -36265,10 +36269,10 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C283" s="2"/>
       <c r="D283" t="s" s="2">
@@ -36380,10 +36384,10 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" t="s" s="2">
@@ -36497,14 +36501,14 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="E285" s="2"/>
       <c r="F285" t="s" s="2">
@@ -36526,10 +36530,10 @@
         <v>111</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="M285" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="N285" t="s" s="2">
         <v>114</v>
@@ -36584,7 +36588,7 @@
         <v>78</v>
       </c>
       <c r="AF285" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AG285" t="s" s="2">
         <v>79</v>
@@ -36616,10 +36620,10 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" t="s" s="2">
@@ -36645,14 +36649,14 @@
         <v>362</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="M286" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="N286" s="2"/>
       <c r="O286" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="P286" t="s" s="2">
         <v>78</v>
@@ -36701,7 +36705,7 @@
         <v>78</v>
       </c>
       <c r="AF286" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="AG286" t="s" s="2">
         <v>79</v>
@@ -36722,7 +36726,7 @@
         <v>78</v>
       </c>
       <c r="AM286" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AN286" t="s" s="2">
         <v>78</v>
@@ -36733,10 +36737,10 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" t="s" s="2">
@@ -36762,10 +36766,10 @@
         <v>233</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="N287" s="2"/>
       <c r="O287" s="2"/>
@@ -36796,7 +36800,7 @@
       </c>
       <c r="Y287" s="2"/>
       <c r="Z287" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="AA287" t="s" s="2">
         <v>78</v>
@@ -36814,7 +36818,7 @@
         <v>78</v>
       </c>
       <c r="AF287" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AG287" t="s" s="2">
         <v>90</v>
@@ -36829,16 +36833,16 @@
         <v>102</v>
       </c>
       <c r="AK287" t="s" s="2">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="AL287" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM287" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="AN287" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="AO287" t="s" s="2">
         <v>78</v>
@@ -36846,10 +36850,10 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" t="s" s="2">
@@ -36961,10 +36965,10 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" t="s" s="2">
@@ -37078,10 +37082,10 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" t="s" s="2">
@@ -37153,7 +37157,7 @@
         <v>78</v>
       </c>
       <c r="AB290" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="AC290" s="2"/>
       <c r="AD290" t="s" s="2">
@@ -37195,13 +37199,13 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C291" t="s" s="2">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D291" t="s" s="2">
         <v>78</v>
@@ -37226,7 +37230,7 @@
         <v>154</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="M291" t="s" s="2">
         <v>395</v>
@@ -37264,7 +37268,7 @@
       </c>
       <c r="Y291" s="2"/>
       <c r="Z291" t="s" s="2">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="AA291" t="s" s="2">
         <v>78</v>
@@ -37314,13 +37318,13 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C292" t="s" s="2">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="D292" t="s" s="2">
         <v>78</v>
@@ -37345,7 +37349,7 @@
         <v>154</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="M292" t="s" s="2">
         <v>395</v>
@@ -37383,7 +37387,7 @@
       </c>
       <c r="Y292" s="2"/>
       <c r="Z292" t="s" s="2">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="AA292" t="s" s="2">
         <v>78</v>
@@ -37433,10 +37437,10 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C293" s="2"/>
       <c r="D293" t="s" s="2">
@@ -37552,10 +37556,10 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C294" s="2"/>
       <c r="D294" t="s" s="2">
@@ -37581,14 +37585,14 @@
         <v>253</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="M294" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="N294" s="2"/>
       <c r="O294" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="P294" t="s" s="2">
         <v>78</v>
@@ -37637,7 +37641,7 @@
         <v>78</v>
       </c>
       <c r="AF294" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="AG294" t="s" s="2">
         <v>79</v>
@@ -37658,10 +37662,10 @@
         <v>78</v>
       </c>
       <c r="AM294" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="AN294" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="AO294" t="s" s="2">
         <v>78</v>
@@ -37669,10 +37673,10 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" t="s" s="2">
@@ -37784,10 +37788,10 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C296" s="2"/>
       <c r="D296" t="s" s="2">
@@ -37901,10 +37905,10 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C297" s="2"/>
       <c r="D297" t="s" s="2">
@@ -37930,7 +37934,7 @@
         <v>260</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="M297" t="s" s="2">
         <v>262</v>
@@ -38001,7 +38005,7 @@
         <v>102</v>
       </c>
       <c r="AK297" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="AL297" t="s" s="2">
         <v>266</v>
@@ -38018,10 +38022,10 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C298" s="2"/>
       <c r="D298" t="s" s="2">
@@ -38047,7 +38051,7 @@
         <v>260</v>
       </c>
       <c r="L298" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="M298" t="s" s="2">
         <v>271</v>
@@ -38120,7 +38124,7 @@
         <v>102</v>
       </c>
       <c r="AK298" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="AL298" t="s" s="2">
         <v>275</v>
@@ -38137,10 +38141,10 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C299" s="2"/>
       <c r="D299" t="s" s="2">
@@ -38166,10 +38170,10 @@
         <v>476</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="M299" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="N299" s="2"/>
       <c r="O299" s="2"/>
@@ -38220,7 +38224,7 @@
         <v>78</v>
       </c>
       <c r="AF299" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="AG299" t="s" s="2">
         <v>79</v>
@@ -38241,7 +38245,7 @@
         <v>78</v>
       </c>
       <c r="AM299" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="AN299" t="s" s="2">
         <v>78</v>
@@ -38252,10 +38256,10 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C300" s="2"/>
       <c r="D300" t="s" s="2">
@@ -38278,19 +38282,19 @@
         <v>78</v>
       </c>
       <c r="K300" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="M300" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="N300" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="O300" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="P300" t="s" s="2">
         <v>78</v>
@@ -38319,7 +38323,7 @@
       </c>
       <c r="Y300" s="2"/>
       <c r="Z300" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="AA300" t="s" s="2">
         <v>78</v>
@@ -38337,7 +38341,7 @@
         <v>78</v>
       </c>
       <c r="AF300" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="AG300" t="s" s="2">
         <v>79</v>
@@ -38355,10 +38359,10 @@
         <v>78</v>
       </c>
       <c r="AL300" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="AM300" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="AN300" t="s" s="2">
         <v>78</v>
